--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>中泰中证500指数增强C</t>
   </si>
   <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
     <t>91.74</t>
   </si>
   <si>
     <t>1.42</t>
+  </si>
+  <si>
+    <t>0.0139</t>
+  </si>
+  <si>
+    <t>0.0061</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008112</t>
-  </si>
-  <si>
-    <t>008113</t>
-  </si>
-  <si>
-    <t>中泰中证500指数增强A</t>
-  </si>
-  <si>
-    <t>中泰中证500指数增强C</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>91.74</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>0.0139</t>
-  </si>
-  <si>
-    <t>0.0061</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.41</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.48</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -649,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1600</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0959</t>
+          <t>0.1685</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -725,102 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0452</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -895,22 +819,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1779</t>
+          <t>0.2474</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -933,22 +857,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1469</t>
+          <t>0.1930</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -971,22 +895,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0437</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1195,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1235,22 +1159,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.1779</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1273,22 +1197,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1930</t>
+          <t>0.1469</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1311,22 +1235,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1344,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,7 +1289,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1405,26 +1329,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2443</t>
+          <t>0.1600</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1443,26 +1367,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>98.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1685</t>
+          <t>0.0959</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1481,26 +1405,102 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0957</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1514,128 +1514,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2443</t>
+          <t>0.2591</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -687,22 +704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>97.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1685</t>
+          <t>0.1489</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -725,26 +742,64 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -819,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -857,26 +912,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1930</t>
+          <t>0.1685</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -895,26 +950,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -989,22 +1044,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2144</t>
+          <t>0.2474</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1027,22 +1082,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2073</t>
+          <t>0.1930</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1065,22 +1120,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0437</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1119,7 +1174,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1159,22 +1214,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1779</t>
+          <t>0.2144</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1197,22 +1252,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1469</t>
+          <t>0.2073</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1235,22 +1290,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1263,6 +1318,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
+++ b/数据整理/stocks/A股/创业板/300002-神州泰岳.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,176 +1367,6 @@
       </c>
       <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2443</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1685</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1044,26 +1441,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1082,26 +1479,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1930</t>
+          <t>0.1685</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1120,26 +1517,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1214,22 +1611,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2144</t>
+          <t>0.2474</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1252,22 +1649,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2073</t>
+          <t>0.1930</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1290,22 +1687,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0437</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1344,7 +1741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1384,22 +1781,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1779</t>
+          <t>0.2144</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1422,22 +1819,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1469</t>
+          <t>0.2073</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1460,22 +1857,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1488,6 +1885,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1733,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
